--- a/example/sitemap.xlsx
+++ b/example/sitemap.xlsx
@@ -38,79 +38,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/bar/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクリプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でぃすくりぷしょん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でぃすく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きーわーど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/foo/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/bar/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/foofoo/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/bar/bar/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/foo/bar/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/barbar/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスクリプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>でぃすくりぷしょん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>でぃすく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きーわーど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keywords</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template</t>
+    <t>/baz/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/foo/qux/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bar/quux/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/baz/corge/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,7 +487,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -506,73 +506,73 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/example/sitemap.xlsx
+++ b/example/sitemap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -90,27 +90,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/foo/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/baz/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/foo/qux/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bar/quux/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/baz/corge/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template2.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>template</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/foo/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/baz/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/foo/qux/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/bar/quux/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/baz/corge/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -506,12 +510,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -519,10 +523,13 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -544,7 +551,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -555,7 +562,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -566,7 +573,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>

--- a/example/sitemap.xlsx
+++ b/example/sitemap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -94,27 +94,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/baz/corge/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template2.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/foo/qux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル qux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title bar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title quux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title baz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル corge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/baz/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/foo/qux/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/bar/quux/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/baz/corge/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template2.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template</t>
+    <t>/bar/quux/grault.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,98 +520,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="F2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/example/sitemap.xlsx
+++ b/example/sitemap.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディスク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>/bar/quux/grault.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクリプション</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -534,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -543,41 +545,41 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
@@ -585,61 +587,61 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/example/sitemap.xlsx
+++ b/example/sitemap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>ディスクリプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -523,7 +527,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -624,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
@@ -641,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
